--- a/C题机场的出租车问题/2019年我国民航月客运量.xlsx
+++ b/C题机场的出租车问题/2019年我国民航月客运量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lancibe\Desktop\数模培训\C题机场的出租车问题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF9D6BC-CD81-4DD1-A39C-D6FDC1212D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C83CC5A-2E88-4CA3-837F-351D6A0B8A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="1032" windowWidth="15060" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2328" yWindow="1152" windowWidth="15060" windowHeight="11052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1341,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1505,6 +1505,12 @@
         <v>149.79354838709679</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>58565.4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/C题机场的出租车问题/2019年我国民航月客运量.xlsx
+++ b/C题机场的出租车问题/2019年我国民航月客运量.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lancibe\Desktop\数模培训\C题机场的出租车问题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C83CC5A-2E88-4CA3-837F-351D6A0B8A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A7CB37-1605-40CB-A509-9C2DE6748307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="1152" windowWidth="15060" windowHeight="11052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="15060" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1341,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -1505,12 +1505,6 @@
         <v>149.79354838709679</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>SUM(B2:B13)</f>
-        <v>58565.4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
